--- a/web/rubrique.xlsx
+++ b/web/rubrique.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">index</t>
+  </si>
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -34,6 +37,15 @@
   </si>
   <si>
     <t xml:space="preserve">ocean,mers,lacs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacifique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indien</t>
   </si>
   <si>
     <t xml:space="preserve">continent</t>
@@ -60,6 +72,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -141,47 +154,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.1</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -208,7 +257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -234,7 +283,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
